--- a/ICS411/Assignment3/report/analysis.xlsx
+++ b/ICS411/Assignment3/report/analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Maelok\Desktop\USB Backup\- College 2014\15.2019 - Fall\1. ICS 411-01 Big Data Storage and Processing\2. Assignments\Assignment 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maelok\eclipse_oxygen_workspace\_Fall2019\ICS411\Assignment3\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -645,12 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" customWidth="1"/>
     <col min="3" max="6" width="13.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -689,7 +691,7 @@
         <v>25814</v>
       </c>
       <c r="E3" s="6">
-        <v>25814</v>
+        <v>2268650</v>
       </c>
       <c r="F3" s="4">
         <v>2261324</v>
@@ -706,7 +708,7 @@
         <v>338337</v>
       </c>
       <c r="E4" s="6">
-        <v>338337</v>
+        <v>6544308</v>
       </c>
       <c r="F4" s="4">
         <v>6532036</v>
@@ -723,7 +725,7 @@
         <v>20779</v>
       </c>
       <c r="E5" s="6">
-        <v>20779</v>
+        <v>2178867</v>
       </c>
       <c r="F5" s="4">
         <v>2178867</v>
@@ -740,7 +742,7 @@
         <v>3146</v>
       </c>
       <c r="E6" s="6">
-        <v>3045</v>
+        <v>3440</v>
       </c>
       <c r="F6" s="4">
         <v>2358</v>
@@ -757,7 +759,7 @@
         <v>3068</v>
       </c>
       <c r="E7" s="6">
-        <v>2562</v>
+        <v>68614</v>
       </c>
       <c r="F7" s="4">
         <v>70938</v>
@@ -774,7 +776,7 @@
         <v>20103</v>
       </c>
       <c r="E8" s="6">
-        <v>20103</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>20103</v>
@@ -791,7 +793,7 @@
         <v>1309</v>
       </c>
       <c r="E9" s="6">
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>20030</v>
@@ -808,7 +810,7 @@
         <v>25814</v>
       </c>
       <c r="E10" s="6">
-        <v>25814</v>
+        <v>2268650</v>
       </c>
       <c r="F10" s="4">
         <v>2261324</v>
@@ -825,7 +827,7 @@
         <v>1309</v>
       </c>
       <c r="E11" s="6">
-        <v>1309</v>
+        <v>20103</v>
       </c>
       <c r="F11" s="4">
         <v>20030</v>
@@ -842,7 +844,7 @@
         <v>1309</v>
       </c>
       <c r="E12" s="6">
-        <v>1309</v>
+        <v>20030</v>
       </c>
       <c r="F12" s="4">
         <v>20030</v>
@@ -859,7 +861,7 @@
         <v>2618</v>
       </c>
       <c r="E13" s="6">
-        <v>2618</v>
+        <v>40206</v>
       </c>
       <c r="F13" s="4">
         <v>40060</v>
@@ -876,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F14" s="4">
         <v>13</v>
@@ -893,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
         <v>13</v>
@@ -910,7 +912,7 @@
         <v>548405248</v>
       </c>
       <c r="E16" s="7">
-        <v>555745280</v>
+        <v>2583691264</v>
       </c>
       <c r="F16" s="4">
         <v>2457862144</v>

--- a/ICS411/Assignment3/report/analysis.xlsx
+++ b/ICS411/Assignment3/report/analysis.xlsx
@@ -645,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -685,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>404720</v>
+        <v>2268578</v>
       </c>
       <c r="D3" s="4">
-        <v>25814</v>
+        <v>2261252</v>
       </c>
       <c r="E3" s="6">
-        <v>2268650</v>
+        <v>2268644</v>
       </c>
       <c r="F3" s="4">
-        <v>2261324</v>
+        <v>2261318</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>1095817</v>
+        <v>4823533</v>
       </c>
       <c r="D4" s="4">
-        <v>338337</v>
+        <v>4809213</v>
       </c>
       <c r="E4" s="6">
-        <v>6544308</v>
+        <v>6400938</v>
       </c>
       <c r="F4" s="4">
-        <v>6532036</v>
+        <v>6388496</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,10 +717,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="6">
-        <v>20779</v>
+        <v>2178867</v>
       </c>
       <c r="D5" s="4">
-        <v>20779</v>
+        <v>2178867</v>
       </c>
       <c r="E5" s="6">
         <v>2178867</v>
@@ -736,16 +734,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>10763</v>
+        <v>2616</v>
       </c>
       <c r="D6" s="4">
-        <v>3146</v>
+        <v>2469</v>
       </c>
       <c r="E6" s="6">
-        <v>3440</v>
+        <v>2472</v>
       </c>
       <c r="F6" s="4">
-        <v>2358</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,16 +751,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="6">
-        <v>4708</v>
+        <v>2771</v>
       </c>
       <c r="D7" s="4">
-        <v>3068</v>
+        <v>2507</v>
       </c>
       <c r="E7" s="6">
-        <v>68614</v>
+        <v>64953</v>
       </c>
       <c r="F7" s="4">
-        <v>70938</v>
+        <v>48472</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>1309</v>
+        <v>20030</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -804,16 +802,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="6">
-        <v>404720</v>
+        <v>2268578</v>
       </c>
       <c r="D10" s="4">
-        <v>25814</v>
+        <v>2261252</v>
       </c>
       <c r="E10" s="6">
-        <v>2268650</v>
+        <v>2268644</v>
       </c>
       <c r="F10" s="4">
-        <v>2261324</v>
+        <v>2261318</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,7 +822,7 @@
         <v>20103</v>
       </c>
       <c r="D11" s="4">
-        <v>1309</v>
+        <v>20030</v>
       </c>
       <c r="E11" s="6">
         <v>20103</v>
@@ -838,10 +836,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="6">
-        <v>1309</v>
+        <v>20030</v>
       </c>
       <c r="D12" s="4">
-        <v>1309</v>
+        <v>20030</v>
       </c>
       <c r="E12" s="6">
         <v>20030</v>
@@ -858,7 +856,7 @@
         <v>40206</v>
       </c>
       <c r="D13" s="4">
-        <v>2618</v>
+        <v>40060</v>
       </c>
       <c r="E13" s="6">
         <v>40206</v>
@@ -878,10 +876,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,16 +904,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="7">
-        <v>362283008</v>
+        <v>555220992</v>
       </c>
       <c r="D16" s="4">
-        <v>548405248</v>
+        <v>555745280</v>
       </c>
       <c r="E16" s="7">
-        <v>2583691264</v>
+        <v>2337800192</v>
       </c>
       <c r="F16" s="4">
-        <v>2457862144</v>
+        <v>2285895680</v>
       </c>
     </row>
   </sheetData>
